--- a/irp-webapp/src/main/resources/irp-package/HI Students1_3.xlsx
+++ b/irp-webapp/src/main/resources/irp-package/HI Students1_3.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -574,7 +574,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>11189</v>
+        <v>8598</v>
       </c>
       <c r="I2">
         <v>11190</v>
@@ -790,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>11190</v>
+        <v>8599</v>
       </c>
       <c r="I3">
         <v>11191</v>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="H4">
-        <v>11191</v>
+        <v>8600</v>
       </c>
       <c r="I4">
         <v>11192</v>
